--- a/file/excel/testcase.xlsx
+++ b/file/excel/testcase.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -153,11 +154,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,9 +460,10 @@
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -484,23 +489,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -509,39 +514,45 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2" s="2">
+        <v>44035</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -557,4 +568,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>